--- a/atomica/library/hiv_dyn_databook.xlsx
+++ b/atomica/library/hiv_dyn_databook.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4B823C57-508C-BC4F-B499-AD703F445E31}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC40E715-1A60-44DF-BF83-81469F17A636}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="20280" windowHeight="14980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="20280" windowHeight="14985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Stocks" sheetId="2" r:id="rId2"/>
     <sheet name="Flows" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -30,6 +37,18 @@
     <t>Full Name</t>
   </si>
   <si>
+    <t>females</t>
+  </si>
+  <si>
+    <t>Females</t>
+  </si>
+  <si>
+    <t>males</t>
+  </si>
+  <si>
+    <t>Males</t>
+  </si>
+  <si>
     <t>Population size</t>
   </si>
   <si>
@@ -103,18 +122,6 @@
   </si>
   <si>
     <t>Background mortality rate</t>
-  </si>
-  <si>
-    <t>females</t>
-  </si>
-  <si>
-    <t>Females</t>
-  </si>
-  <si>
-    <t>males</t>
-  </si>
-  <si>
-    <t>Males</t>
   </si>
 </sst>
 </file>
@@ -1016,12 +1023,12 @@
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.83203125" customWidth="1"/>
+    <col min="1" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1029,20 +1036,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1061,24 +1068,24 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -1094,17 +1101,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
         <f>55910000*0.51</f>
@@ -1114,17 +1121,17 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
         <f>55910000*0.49</f>
@@ -1134,15 +1141,15 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
@@ -1158,17 +1165,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2">
         <v>3390000</v>
@@ -1177,17 +1184,17 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2">
         <v>2540000</v>
@@ -1196,15 +1203,15 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
@@ -1220,17 +1227,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2">
         <v>2440800</v>
@@ -1239,17 +1246,17 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2">
         <v>1676400</v>
@@ -1258,15 +1265,15 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -1282,17 +1289,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2">
         <v>2237400</v>
@@ -1301,17 +1308,17 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2">
         <v>1384300</v>
@@ -1320,15 +1327,15 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
@@ -1344,17 +1351,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2">
         <v>2034000</v>
@@ -1363,17 +1370,17 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2">
         <v>1092200</v>
@@ -1382,15 +1389,15 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
@@ -1406,17 +1413,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E22" s="2">
         <v>1728900</v>
@@ -1425,17 +1432,17 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2">
         <v>939800</v>
@@ -1444,15 +1451,15 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
@@ -1468,17 +1475,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2">
         <v>1017000</v>
@@ -1487,17 +1494,17 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2">
         <v>508000</v>
@@ -1620,7 +1627,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26:B27 B22:B23 B18:B19 B14:B15 B10:B11 B6:B7 B2:B3" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B26:B27 B22:B23 B18:B19 B14:B15 B10:B11 B6:B7 B2:B3" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1639,23 +1646,23 @@
       <selection activeCell="E14" sqref="E14:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="1" max="1" width="69.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -1671,17 +1678,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
         <f>20.2/1000*Stocks!E2*0.5</f>
@@ -1691,17 +1698,17 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
         <f>20.2/1000*Stocks!E3*0.5</f>
@@ -1711,15 +1718,15 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
@@ -1735,17 +1742,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2">
         <v>150000</v>
@@ -1754,17 +1761,17 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2">
         <v>110000</v>
@@ -1773,15 +1780,15 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
@@ -1797,17 +1804,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2">
         <f>10000000*0.64</f>
@@ -1817,17 +1824,17 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2">
         <f>10000000*0.36</f>
@@ -1837,15 +1844,15 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -1861,17 +1868,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2">
         <v>0.7</v>
@@ -1880,17 +1887,17 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2">
         <v>1.2</v>
@@ -1899,15 +1906,15 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
@@ -1923,17 +1930,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2">
         <v>269448</v>
@@ -1942,17 +1949,17 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2">
         <v>179632</v>
@@ -1961,15 +1968,15 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
@@ -1985,17 +1992,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E22" s="2">
         <v>0.2</v>
@@ -2004,17 +2011,17 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2">
         <v>0.3</v>
@@ -2023,15 +2030,15 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
@@ -2047,53 +2054,53 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C26" s="4">
         <v>0.2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C27" s="4">
         <v>0.2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
@@ -2109,53 +2116,53 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C30" s="4">
         <v>0.16</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C31" s="4">
         <v>0.16</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1">
@@ -2171,53 +2178,53 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C34" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C35" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
@@ -2233,53 +2240,53 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C38" s="4">
         <v>2.5853399999999999E-2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C39" s="4">
         <v>2.5853399999999999E-2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1">
@@ -2295,53 +2302,53 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C42" s="4">
         <v>1.2189999999999999E-2</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C43" s="4">
         <v>1.2189999999999999E-2</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1">
@@ -2357,38 +2364,38 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C46" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C47" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -2589,13 +2596,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 B10:B11 B6:B7 B2:B3" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 B10:B11 B6:B7 B2:B3" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26:B27 B14:B15" xr:uid="{00000000-0002-0000-0200-000006000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B26:B27 B14:B15" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Duration"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46:B47 B42:B43 B38:B39 B34:B35 B30:B31 B22:B23" xr:uid="{00000000-0002-0000-0200-00000A000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B46:B47 B42:B43 B38:B39 B34:B35 B30:B31 B22:B23" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Probability"</formula1>
     </dataValidation>
   </dataValidations>

--- a/atomica/library/hiv_dyn_databook.xlsx
+++ b/atomica/library/hiv_dyn_databook.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romesh.abeysuriya/projects/atomica/atomica/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC40E715-1A60-44DF-BF83-81469F17A636}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6E90F5-F994-264D-B579-505DB27AB453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="20280" windowHeight="14985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="20280" windowHeight="14980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Stocks" sheetId="2" r:id="rId2"/>
     <sheet name="Flows" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -103,9 +109,6 @@
     <t>Loss-to-follow-up rate</t>
   </si>
   <si>
-    <t>Probability</t>
-  </si>
-  <si>
     <t>Time after initiating ART to achieve viral suppression (years)</t>
   </si>
   <si>
@@ -122,6 +125,9 @@
   </si>
   <si>
     <t>Background mortality rate</t>
+  </si>
+  <si>
+    <t>Rate (per year)</t>
   </si>
 </sst>
 </file>
@@ -223,7 +229,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="38">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -334,6 +340,11 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="lightUp">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
@@ -341,11 +352,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="lightUp">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
@@ -370,6 +376,11 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="lightUp">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
@@ -421,239 +432,6 @@
         <patternFill patternType="lightUp">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
       </fill>
     </dxf>
     <dxf>
@@ -694,9 +472,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -734,9 +512,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -769,26 +547,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -821,26 +582,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1023,12 +767,12 @@
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="2" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1044,7 +788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1064,20 +808,20 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1101,7 +845,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
@@ -1121,7 +865,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
@@ -1141,7 +885,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1165,7 +909,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
@@ -1184,7 +928,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
@@ -1203,7 +947,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1227,7 +971,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
@@ -1246,7 +990,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
@@ -1265,7 +1009,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1289,7 +1033,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
@@ -1308,7 +1052,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
@@ -1327,7 +1071,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1351,7 +1095,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
@@ -1370,7 +1114,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
@@ -1389,7 +1133,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1413,7 +1157,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
@@ -1432,7 +1176,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
@@ -1451,7 +1195,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1475,7 +1219,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
@@ -1494,7 +1238,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
@@ -1514,116 +1258,60 @@
       <c r="H27" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="75" priority="9">
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="expression" dxfId="37" priority="1">
+      <formula>COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="2">
+      <formula>AND(COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C7">
+    <cfRule type="expression" dxfId="35" priority="5">
+      <formula>COUNTIF(E6:H6,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="6">
+      <formula>AND(COUNTIF(E6:H6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C11">
+    <cfRule type="expression" dxfId="33" priority="10">
+      <formula>AND(COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="9">
       <formula>COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="10">
-      <formula>AND(COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="73" priority="11">
-      <formula>COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="12">
-      <formula>AND(COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
+  <conditionalFormatting sqref="C14:C15">
+    <cfRule type="expression" dxfId="31" priority="14">
+      <formula>AND(COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="13">
+      <formula>COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="71" priority="13">
-      <formula>COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="14">
-      <formula>AND(COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
+  <conditionalFormatting sqref="C18:C19">
+    <cfRule type="expression" dxfId="29" priority="18">
+      <formula>AND(COUNTIF(E18:H18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="17">
+      <formula>COUNTIF(E18:H18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="69" priority="15">
-      <formula>COUNTIF(E15:H15,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="16">
-      <formula>AND(COUNTIF(E15:H15,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C15)))</formula>
+  <conditionalFormatting sqref="C22:C23">
+    <cfRule type="expression" dxfId="27" priority="22">
+      <formula>AND(COUNTIF(E22:H22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C22)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="21">
+      <formula>COUNTIF(E22:H22,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="67" priority="17">
-      <formula>COUNTIF(E18:H18,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="18">
-      <formula>AND(COUNTIF(E18:H18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="65" priority="19">
-      <formula>COUNTIF(E19:H19,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="20">
-      <formula>AND(COUNTIF(E19:H19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="63" priority="1">
-      <formula>COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="2">
-      <formula>AND(COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="61" priority="21">
-      <formula>COUNTIF(E22:H22,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="22">
-      <formula>AND(COUNTIF(E22:H22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="59" priority="23">
-      <formula>COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="24">
-      <formula>AND(COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="57" priority="25">
+  <conditionalFormatting sqref="C26:C27">
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>AND(COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="26">
-      <formula>AND(COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="55" priority="27">
-      <formula>COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="28">
-      <formula>AND(COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="53" priority="3">
-      <formula>COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="4">
-      <formula>AND(COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="51" priority="5">
-      <formula>COUNTIF(E6:H6,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="6">
-      <formula>AND(COUNTIF(E6:H6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="49" priority="7">
-      <formula>COUNTIF(E7:H7,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="8">
-      <formula>AND(COUNTIF(E7:H7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -1642,19 +1330,19 @@
   </sheetPr>
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E23"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="69.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1678,7 +1366,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
@@ -1698,7 +1386,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
@@ -1718,7 +1406,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1742,7 +1430,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
@@ -1761,7 +1449,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
@@ -1780,7 +1468,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1804,7 +1492,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
@@ -1824,7 +1512,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
@@ -1844,7 +1532,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1868,7 +1556,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
@@ -1887,7 +1575,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
@@ -1906,7 +1594,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1930,7 +1618,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
@@ -1949,7 +1637,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
@@ -1968,7 +1656,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1992,13 +1680,13 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3" t="s">
@@ -2011,13 +1699,13 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
@@ -2030,9 +1718,9 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
@@ -2054,7 +1742,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
@@ -2073,7 +1761,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
@@ -2092,9 +1780,9 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
@@ -2116,13 +1804,13 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C30" s="4">
         <v>0.16</v>
@@ -2135,13 +1823,13 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C31" s="4">
         <v>0.16</v>
@@ -2154,9 +1842,9 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>7</v>
@@ -2178,13 +1866,13 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C34" s="4">
         <v>5.2999999999999999E-2</v>
@@ -2197,13 +1885,13 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C35" s="4">
         <v>5.2999999999999999E-2</v>
@@ -2216,9 +1904,9 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>7</v>
@@ -2240,13 +1928,13 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C38" s="4">
         <v>2.5853399999999999E-2</v>
@@ -2259,13 +1947,13 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C39" s="4">
         <v>2.5853399999999999E-2</v>
@@ -2278,9 +1966,9 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>7</v>
@@ -2302,13 +1990,13 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C42" s="4">
         <v>1.2189999999999999E-2</v>
@@ -2321,13 +2009,13 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C43" s="4">
         <v>1.2189999999999999E-2</v>
@@ -2340,9 +2028,9 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>7</v>
@@ -2364,13 +2052,13 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C46" s="4">
         <v>1.4999999999999999E-2</v>
@@ -2383,13 +2071,13 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C47" s="4">
         <v>1.4999999999999999E-2</v>
@@ -2403,196 +2091,100 @@
       <c r="H47" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="47" priority="9">
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="expression" dxfId="23" priority="1">
+      <formula>COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="2">
+      <formula>AND(COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C7">
+    <cfRule type="expression" dxfId="21" priority="5">
+      <formula>COUNTIF(E6:H6,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="6">
+      <formula>AND(COUNTIF(E6:H6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C11">
+    <cfRule type="expression" dxfId="19" priority="10">
+      <formula>AND(COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="10">
-      <formula>AND(COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="45" priority="11">
-      <formula>COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="12">
-      <formula>AND(COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
+  <conditionalFormatting sqref="C14:C15">
+    <cfRule type="expression" dxfId="17" priority="13">
+      <formula>COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="14">
+      <formula>AND(COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="43" priority="13">
-      <formula>COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="14">
-      <formula>AND(COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
+  <conditionalFormatting sqref="C18:C19">
+    <cfRule type="expression" dxfId="15" priority="17">
+      <formula>COUNTIF(E18:H18,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="18">
+      <formula>AND(COUNTIF(E18:H18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="41" priority="15">
-      <formula>COUNTIF(E15:H15,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="16">
-      <formula>AND(COUNTIF(E15:H15,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C15)))</formula>
+  <conditionalFormatting sqref="C22:C23">
+    <cfRule type="expression" dxfId="13" priority="21">
+      <formula>COUNTIF(E22:H22,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="22">
+      <formula>AND(COUNTIF(E22:H22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="39" priority="17">
-      <formula>COUNTIF(E18:H18,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="18">
-      <formula>AND(COUNTIF(E18:H18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
+  <conditionalFormatting sqref="C26:C27">
+    <cfRule type="expression" dxfId="11" priority="25">
+      <formula>COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="26">
+      <formula>AND(COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="37" priority="19">
-      <formula>COUNTIF(E19:H19,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="20">
-      <formula>AND(COUNTIF(E19:H19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
+  <conditionalFormatting sqref="C30:C31">
+    <cfRule type="expression" dxfId="9" priority="29">
+      <formula>COUNTIF(E30:H30,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="30">
+      <formula>AND(COUNTIF(E30:H30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="35" priority="1">
-      <formula>COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2">
-      <formula>AND(COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
+  <conditionalFormatting sqref="C34:C35">
+    <cfRule type="expression" dxfId="7" priority="33">
+      <formula>COUNTIF(E34:H34,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="34">
+      <formula>AND(COUNTIF(E34:H34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="33" priority="21">
-      <formula>COUNTIF(E22:H22,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="22">
-      <formula>AND(COUNTIF(E22:H22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C22)))</formula>
+  <conditionalFormatting sqref="C38:C39">
+    <cfRule type="expression" dxfId="5" priority="37">
+      <formula>COUNTIF(E38:H38,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="38">
+      <formula>AND(COUNTIF(E38:H38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="31" priority="23">
-      <formula>COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="24">
-      <formula>AND(COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
+  <conditionalFormatting sqref="C42:C43">
+    <cfRule type="expression" dxfId="3" priority="41">
+      <formula>COUNTIF(E42:H42,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="42">
+      <formula>AND(COUNTIF(E42:H42,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="29" priority="25">
-      <formula>COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="26">
-      <formula>AND(COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="27" priority="27">
-      <formula>COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28">
-      <formula>AND(COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="25" priority="3">
-      <formula>COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="4">
-      <formula>AND(COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="23" priority="29">
-      <formula>COUNTIF(E30:H30,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="30">
-      <formula>AND(COUNTIF(E30:H30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="21" priority="31">
-      <formula>COUNTIF(E31:H31,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="32">
-      <formula>AND(COUNTIF(E31:H31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="19" priority="33">
-      <formula>COUNTIF(E34:H34,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="34">
-      <formula>AND(COUNTIF(E34:H34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="17" priority="35">
-      <formula>COUNTIF(E35:H35,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="36">
-      <formula>AND(COUNTIF(E35:H35,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="15" priority="37">
-      <formula>COUNTIF(E38:H38,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="38">
-      <formula>AND(COUNTIF(E38:H38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="13" priority="39">
-      <formula>COUNTIF(E39:H39,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="40">
-      <formula>AND(COUNTIF(E39:H39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="11" priority="41">
-      <formula>COUNTIF(E42:H42,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="42">
-      <formula>AND(COUNTIF(E42:H42,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="9" priority="43">
-      <formula>COUNTIF(E43:H43,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="44">
-      <formula>AND(COUNTIF(E43:H43,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="7" priority="45">
+  <conditionalFormatting sqref="C46:C47">
+    <cfRule type="expression" dxfId="1" priority="45">
       <formula>COUNTIF(E46:H46,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="46">
+    <cfRule type="expression" dxfId="0" priority="46">
       <formula>AND(COUNTIF(E46:H46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="5" priority="47">
-      <formula>COUNTIF(E47:H47,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="48">
-      <formula>AND(COUNTIF(E47:H47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>COUNTIF(E6:H6,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>AND(COUNTIF(E6:H6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>COUNTIF(E7:H7,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
-      <formula>AND(COUNTIF(E7:H7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -2602,8 +2194,8 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B26:B27 B14:B15" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Duration"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B46:B47 B42:B43 B38:B39 B34:B35 B30:B31 B22:B23" xr:uid="{00000000-0002-0000-0200-000002000000}">
-      <formula1>"Probability"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B30:B31 B34:B35 B38:B39 B42:B43 B46:B47 B22:B23" xr:uid="{CD1293EC-DECB-0D4A-A8D6-5F53A0AE7E12}">
+      <formula1>"Rate (per year)"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
